--- a/Code/Results/Cases/Case_0_226/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_226/res_line/pl_mw.xlsx
@@ -424,19 +424,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.4090560894113082</v>
+        <v>0.4139986809832124</v>
       </c>
       <c r="D2">
-        <v>0.05098239017098649</v>
+        <v>0.04596563793990782</v>
       </c>
       <c r="E2">
-        <v>0.1830191915668138</v>
+        <v>0.1749602748229151</v>
       </c>
       <c r="F2">
-        <v>0.5532304533203671</v>
+        <v>0.996870010770678</v>
       </c>
       <c r="G2">
-        <v>0.0007965807639003849</v>
+        <v>0.002464209536163677</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,10 +448,10 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>5.213645937163164</v>
+        <v>2.000725455984195</v>
       </c>
       <c r="L2">
-        <v>0.1687748580819175</v>
+        <v>0.1527498577433519</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.616104060790178</v>
+        <v>3.561611638974739</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,19 +471,19 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.3650692943340061</v>
+        <v>0.4051178511413411</v>
       </c>
       <c r="D3">
-        <v>0.04746201265317751</v>
+        <v>0.04481902887347644</v>
       </c>
       <c r="E3">
-        <v>0.162796600956419</v>
+        <v>0.1708091561282927</v>
       </c>
       <c r="F3">
-        <v>0.5240569515535896</v>
+        <v>1.003477975750442</v>
       </c>
       <c r="G3">
-        <v>0.0008021210652426989</v>
+        <v>0.0024677502660045</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,10 +495,10 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>4.530649814323056</v>
+        <v>1.788415386103793</v>
       </c>
       <c r="L3">
-        <v>0.1496727248250451</v>
+        <v>0.1487713566611859</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.57586282835365</v>
+        <v>3.602852058618993</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,19 +518,19 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.3386157159823995</v>
+        <v>0.3998931948320603</v>
       </c>
       <c r="D4">
-        <v>0.04531992593896916</v>
+        <v>0.04411986742900353</v>
       </c>
       <c r="E4">
-        <v>0.1506358240253114</v>
+        <v>0.1683596402831817</v>
       </c>
       <c r="F4">
-        <v>0.508212375520614</v>
+        <v>1.008412737056688</v>
       </c>
       <c r="G4">
-        <v>0.000805621369795542</v>
+        <v>0.002470037784509738</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,10 +542,10 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>4.112438435075717</v>
+        <v>1.657860822143164</v>
       </c>
       <c r="L4">
-        <v>0.1381868295205635</v>
+        <v>0.1464175458867061</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.558277811601045</v>
+        <v>3.631272634130227</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,19 +565,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.327962503779105</v>
+        <v>0.3978214668213411</v>
       </c>
       <c r="D5">
-        <v>0.04445131613611863</v>
+        <v>0.04383620304147229</v>
       </c>
       <c r="E5">
-        <v>0.1457385411834302</v>
+        <v>0.1673863829903937</v>
       </c>
       <c r="F5">
-        <v>0.5022405697371681</v>
+        <v>1.010643693257144</v>
       </c>
       <c r="G5">
-        <v>0.0008070732817354701</v>
+        <v>0.00247099859562998</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,10 +589,10 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>3.942219618644401</v>
+        <v>1.604612395996014</v>
       </c>
       <c r="L5">
-        <v>0.1335613944750094</v>
+        <v>0.1454806914137947</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.552788379577493</v>
+        <v>3.643631216280539</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,19 +612,19 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.3262008539057888</v>
+        <v>0.3974809218557027</v>
       </c>
       <c r="D6">
-        <v>0.04430732843277951</v>
+        <v>0.0437891770713037</v>
       </c>
       <c r="E6">
-        <v>0.144928705340881</v>
+        <v>0.1672262799426498</v>
       </c>
       <c r="F6">
-        <v>0.5012772641198353</v>
+        <v>1.011027410617288</v>
       </c>
       <c r="G6">
-        <v>0.0008073159318175711</v>
+        <v>0.002471159869347427</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,10 +636,10 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>3.913965013222935</v>
+        <v>1.595767815648685</v>
       </c>
       <c r="L6">
-        <v>0.1327965105441891</v>
+        <v>0.1453264757723289</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.55197491075603</v>
+        <v>3.645730210443418</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,19 +659,19 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.3384715455339631</v>
+        <v>0.3998650225560709</v>
       </c>
       <c r="D7">
-        <v>0.04530819484688919</v>
+        <v>0.04411603673612774</v>
       </c>
       <c r="E7">
-        <v>0.1505695490571277</v>
+        <v>0.1683464136462227</v>
       </c>
       <c r="F7">
-        <v>0.5081299187089598</v>
+        <v>1.008441934590145</v>
       </c>
       <c r="G7">
-        <v>0.0008056408465882088</v>
+        <v>0.002470050626134021</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,10 +683,10 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>4.11014207766749</v>
+        <v>1.657142879378284</v>
       </c>
       <c r="L7">
-        <v>0.1381242334770505</v>
+        <v>0.1464048207255573</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.558197136940009</v>
+        <v>3.631436163385985</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.393766502944203</v>
+        <v>0.410889187738519</v>
       </c>
       <c r="D8">
-        <v>0.04976416122401872</v>
+        <v>0.04556929390411568</v>
       </c>
       <c r="E8">
-        <v>0.1759895503918116</v>
+        <v>0.1735083440453593</v>
       </c>
       <c r="F8">
-        <v>0.5427204125008132</v>
+        <v>0.9989659373338782</v>
       </c>
       <c r="G8">
-        <v>0.0007984710630305703</v>
+        <v>0.002465406877625336</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,10 +730,10 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>4.977857382571074</v>
+        <v>1.927563042905831</v>
       </c>
       <c r="L8">
-        <v>0.1621343388043641</v>
+        <v>0.1513595726019901</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.600679187736858</v>
+        <v>3.575186827951626</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,19 +753,19 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.5072171331963489</v>
+        <v>0.4343210761982732</v>
       </c>
       <c r="D9">
-        <v>0.05868624756253382</v>
+        <v>0.04845669077908354</v>
       </c>
       <c r="E9">
-        <v>0.2281652432866323</v>
+        <v>0.1844206565040025</v>
       </c>
       <c r="F9">
-        <v>0.6286628651825339</v>
+        <v>0.9873753370555605</v>
       </c>
       <c r="G9">
-        <v>0.000785157385066951</v>
+        <v>0.00245719694332058</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,10 +777,10 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>6.692776138508805</v>
+        <v>2.456214352125755</v>
       </c>
       <c r="L9">
-        <v>0.2114357634927586</v>
+        <v>0.1617845040393746</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.746069495520175</v>
+        <v>3.48957181864418</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,19 +800,19 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.5945688431071403</v>
+        <v>0.4526484649215945</v>
       </c>
       <c r="D10">
-        <v>0.06540052953671704</v>
+        <v>0.05059988414623007</v>
       </c>
       <c r="E10">
-        <v>0.2683686985455935</v>
+        <v>0.1929232792678661</v>
       </c>
       <c r="F10">
-        <v>0.705413974263351</v>
+        <v>0.9831643943366828</v>
       </c>
       <c r="G10">
-        <v>0.0007757769756256485</v>
+        <v>0.002451705841230303</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,10 +824,10 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>7.967369832741838</v>
+        <v>2.843531361937721</v>
       </c>
       <c r="L10">
-        <v>0.2494524758221672</v>
+        <v>0.1698801903928597</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.899136906170469</v>
+        <v>3.44186472000365</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,19 +847,19 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.6354082202760765</v>
+        <v>0.4612290879202021</v>
       </c>
       <c r="D11">
-        <v>0.06850170563478741</v>
+        <v>0.05157941815416933</v>
       </c>
       <c r="E11">
-        <v>0.2871759810801393</v>
+        <v>0.1968976477203555</v>
       </c>
       <c r="F11">
-        <v>0.7439173720161847</v>
+        <v>0.9821926324683119</v>
       </c>
       <c r="G11">
-        <v>0.0007715835639339045</v>
+        <v>0.002449323983872219</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,10 +871,10 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>8.552019702997825</v>
+        <v>3.019482673451648</v>
       </c>
       <c r="L11">
-        <v>0.2672467831673657</v>
+        <v>0.1736589436436446</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.980885682323617</v>
+        <v>3.423491686338224</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,19 +894,19 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.6510529870589892</v>
+        <v>0.4645134255538039</v>
       </c>
       <c r="D12">
-        <v>0.06968391256121009</v>
+        <v>0.05195098093135897</v>
       </c>
       <c r="E12">
-        <v>0.2943826754651013</v>
+        <v>0.1984180020261661</v>
       </c>
       <c r="F12">
-        <v>0.7590722294376206</v>
+        <v>0.9819610987787399</v>
       </c>
       <c r="G12">
-        <v>0.0007700050442351268</v>
+        <v>0.002448438634509003</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,10 +918,10 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>8.774254692683144</v>
+        <v>3.086074203756425</v>
       </c>
       <c r="L12">
-        <v>0.2740671162929118</v>
+        <v>0.1751037252383298</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>2.013776724400827</v>
+        <v>3.417015545861005</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.6476752502883869</v>
+        <v>0.4638045255078964</v>
       </c>
       <c r="D13">
-        <v>0.06942893423015306</v>
+        <v>0.05187093040495938</v>
       </c>
       <c r="E13">
-        <v>0.2928266402922262</v>
+        <v>0.1980898833829912</v>
       </c>
       <c r="F13">
-        <v>0.7557818197070389</v>
+        <v>0.9820048833282868</v>
       </c>
       <c r="G13">
-        <v>0.000770344606977759</v>
+        <v>0.002448628572874624</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,10 +965,10 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>8.726352531259693</v>
+        <v>3.071734233164307</v>
       </c>
       <c r="L13">
-        <v>0.2725944165320016</v>
+        <v>0.1747919489395287</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>2.006603747114013</v>
+        <v>3.418388849934274</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,19 +988,19 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.6366915925207763</v>
+        <v>0.4614985898201382</v>
       </c>
       <c r="D14">
-        <v>0.06859880207134239</v>
+        <v>0.05160997426966674</v>
       </c>
       <c r="E14">
-        <v>0.2877671187513542</v>
+        <v>0.1970224203982909</v>
       </c>
       <c r="F14">
-        <v>0.7451523035507392</v>
+        <v>0.9821708451693496</v>
       </c>
       <c r="G14">
-        <v>0.0007714535161261872</v>
+        <v>0.002449250813261505</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,10 +1012,10 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>8.57028536900367</v>
+        <v>3.024961964015915</v>
       </c>
       <c r="L14">
-        <v>0.2678061910430216</v>
+        <v>0.173777528851673</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.983551708721905</v>
+        <v>3.422949228921794</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,19 +1035,19 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.6299878633597586</v>
+        <v>0.4600907023713319</v>
       </c>
       <c r="D15">
-        <v>0.0680913813463917</v>
+        <v>0.05145021301225228</v>
       </c>
       <c r="E15">
-        <v>0.2846793779570547</v>
+        <v>0.1963705682180787</v>
       </c>
       <c r="F15">
-        <v>0.7387180588082742</v>
+        <v>0.9822902933191813</v>
       </c>
       <c r="G15">
-        <v>0.0007721339469207104</v>
+        <v>0.002449634113732138</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,10 +1059,10 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>8.474803808746174</v>
+        <v>2.996307646109017</v>
       </c>
       <c r="L15">
-        <v>0.2648842617232106</v>
+        <v>0.1731579723200127</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.969689629866053</v>
+        <v>3.425805353120751</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,19 +1082,19 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.591923849057963</v>
+        <v>0.452092602362967</v>
       </c>
       <c r="D16">
-        <v>0.06519889574835247</v>
+        <v>0.05053595941425471</v>
       </c>
       <c r="E16">
-        <v>0.2671508833792657</v>
+        <v>0.1926656906314577</v>
       </c>
       <c r="F16">
-        <v>0.7029747676266993</v>
+        <v>0.983246955807445</v>
       </c>
       <c r="G16">
-        <v>0.0007760524115872129</v>
+        <v>0.002451863829898588</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,10 +1106,10 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>7.929270954011088</v>
+        <v>2.832027442344383</v>
       </c>
       <c r="L16">
-        <v>0.2483004816676413</v>
+        <v>0.169635175461849</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.894054261922776</v>
+        <v>3.443132654328224</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,19 +1129,19 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.5688696826398143</v>
+        <v>0.4472483967369101</v>
       </c>
       <c r="D17">
-        <v>0.06343720072768377</v>
+        <v>0.04997625080464019</v>
       </c>
       <c r="E17">
-        <v>0.2565374874750574</v>
+        <v>0.190420165739333</v>
       </c>
       <c r="F17">
-        <v>0.6820064214390271</v>
+        <v>0.9840760919148011</v>
       </c>
       <c r="G17">
-        <v>0.0007784743574472569</v>
+        <v>0.002453261358337537</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,10 +1153,10 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>7.595940910117349</v>
+        <v>2.731183131683508</v>
       </c>
       <c r="L17">
-        <v>0.2382618664222349</v>
+        <v>0.1674986710766575</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.85088888318171</v>
+        <v>3.454616919234866</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,19 +1176,19 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.555711934917241</v>
+        <v>0.4444850453639333</v>
       </c>
       <c r="D18">
-        <v>0.06242825185599088</v>
+        <v>0.04965475416742748</v>
       </c>
       <c r="E18">
-        <v>0.2504810804923849</v>
+        <v>0.1891386197186051</v>
       </c>
       <c r="F18">
-        <v>0.6702799797934347</v>
+        <v>0.9846417818197324</v>
       </c>
       <c r="G18">
-        <v>0.0007798744180515611</v>
+        <v>0.002454076109799231</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,10 +1200,10 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>7.404663400807408</v>
+        <v>2.673157614396303</v>
       </c>
       <c r="L18">
-        <v>0.2325343528261214</v>
+        <v>0.1662788419460099</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.827189317451001</v>
+        <v>3.461535565744157</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,19 +1223,19 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.5512739213624798</v>
+        <v>0.4435533552481274</v>
       </c>
       <c r="D19">
-        <v>0.06208735084560857</v>
+        <v>0.0495459760572885</v>
       </c>
       <c r="E19">
-        <v>0.2484384576148955</v>
+        <v>0.1887064302299422</v>
       </c>
       <c r="F19">
-        <v>0.6663652840661882</v>
+        <v>0.9848485426626752</v>
       </c>
       <c r="G19">
-        <v>0.0007803496944560798</v>
+        <v>0.002454353850505853</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,10 +1247,10 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>7.339972356018393</v>
+        <v>2.653507384812428</v>
       </c>
       <c r="L19">
-        <v>0.2306027992438118</v>
+        <v>0.1658673785356797</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.819353239157351</v>
+        <v>3.463931814071401</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,19 +1270,19 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.5713130929311205</v>
+        <v>0.4477616995567075</v>
       </c>
       <c r="D20">
-        <v>0.06362428013378718</v>
+        <v>0.05003578811447795</v>
       </c>
       <c r="E20">
-        <v>0.2576622486866285</v>
+        <v>0.1906581683620985</v>
       </c>
       <c r="F20">
-        <v>0.6842035653088914</v>
+        <v>0.9839786339409926</v>
       </c>
       <c r="G20">
-        <v>0.0007782158187025612</v>
+        <v>0.002453111458342161</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,10 +1294,10 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>7.631377382683922</v>
+        <v>2.74192053321633</v>
       </c>
       <c r="L20">
-        <v>0.2393256188158688</v>
+        <v>0.1677251705321225</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.855365834056499</v>
+        <v>3.453361965658303</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,19 +1317,19 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.6399127002653415</v>
+        <v>0.4621749476648347</v>
       </c>
       <c r="D21">
-        <v>0.06884240907086792</v>
+        <v>0.05168660638507561</v>
       </c>
       <c r="E21">
-        <v>0.2892508352844629</v>
+        <v>0.1973355433488706</v>
       </c>
       <c r="F21">
-        <v>0.7482583658890434</v>
+        <v>0.9821183890662297</v>
       </c>
       <c r="G21">
-        <v>0.0007711275565511766</v>
+        <v>0.002449067595981726</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,10 +1341,10 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>8.616102020863536</v>
+        <v>3.038701150151041</v>
       </c>
       <c r="L21">
-        <v>0.2692102977270707</v>
+        <v>0.1740751123626723</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.990268522517709</v>
+        <v>3.421596651213946</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,19 +1364,19 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.6858058202518862</v>
+        <v>0.4717991100726806</v>
       </c>
       <c r="D22">
-        <v>0.0722991884242532</v>
+        <v>0.05276919903282362</v>
       </c>
       <c r="E22">
-        <v>0.3103954978461019</v>
+        <v>0.2017890662341344</v>
       </c>
       <c r="F22">
-        <v>0.793501592720034</v>
+        <v>0.9816982949388802</v>
       </c>
       <c r="G22">
-        <v>0.0007665493311355492</v>
+        <v>0.002446521466519157</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,10 +1388,10 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>9.264655989043774</v>
+        <v>3.232445138569801</v>
       </c>
       <c r="L22">
-        <v>0.2892251433682844</v>
+        <v>0.1783059158836551</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>2.089814603320065</v>
+        <v>3.403642942633581</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,19 +1411,19 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.6612072980523465</v>
+        <v>0.4666438085549487</v>
       </c>
       <c r="D23">
-        <v>0.0704495834988208</v>
+        <v>0.05219106952932151</v>
       </c>
       <c r="E23">
-        <v>0.2990608203293306</v>
+        <v>0.1994039386891941</v>
       </c>
       <c r="F23">
-        <v>0.7690243723774302</v>
+        <v>0.9818494600813636</v>
       </c>
       <c r="G23">
-        <v>0.0007689882596439144</v>
+        <v>0.00244787155662951</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,10 +1435,10 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>8.918002662567233</v>
+        <v>3.12906128180731</v>
       </c>
       <c r="L23">
-        <v>0.2784950044711252</v>
+        <v>0.1760404520117476</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>2.035575219893332</v>
+        <v>3.412967496261899</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,19 +1458,19 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.5702081284530323</v>
+        <v>0.4475295679307862</v>
       </c>
       <c r="D24">
-        <v>0.06353968955378519</v>
+        <v>0.05000887039919633</v>
       </c>
       <c r="E24">
-        <v>0.2571536035676161</v>
+        <v>0.1905505379882229</v>
       </c>
       <c r="F24">
-        <v>0.6832092175794884</v>
+        <v>0.9840224174822794</v>
       </c>
       <c r="G24">
-        <v>0.0007783326801404367</v>
+        <v>0.002453179192966841</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,10 +1482,10 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>7.615355448043829</v>
+        <v>2.737066305733038</v>
       </c>
       <c r="L24">
-        <v>0.2388445606176361</v>
+        <v>0.1676227437329345</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.853338340313115</v>
+        <v>3.45392834541866</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,19 +1505,19 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.475896383657556</v>
+        <v>0.4277873234759966</v>
       </c>
       <c r="D25">
-        <v>0.05624835577851428</v>
+        <v>0.04767166635276965</v>
       </c>
       <c r="E25">
-        <v>0.2137570003904159</v>
+        <v>0.1813836379002751</v>
       </c>
       <c r="F25">
-        <v>0.6032223093384061</v>
+        <v>0.9897580118543772</v>
       </c>
       <c r="G25">
-        <v>0.0007886844935783858</v>
+        <v>0.002459322574913475</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,10 +1529,10 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>6.226781686886909</v>
+        <v>2.31338464629323</v>
       </c>
       <c r="L25">
-        <v>0.1978176438309589</v>
+        <v>0.158887956997404</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.69926756573949</v>
+        <v>3.510074999048754</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_226/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_226/res_line/pl_mw.xlsx
@@ -424,19 +424,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.4139986809832124</v>
+        <v>0.4090560894113366</v>
       </c>
       <c r="D2">
-        <v>0.04596563793990782</v>
+        <v>0.0509823901708657</v>
       </c>
       <c r="E2">
-        <v>0.1749602748229151</v>
+        <v>0.1830191915668067</v>
       </c>
       <c r="F2">
-        <v>0.996870010770678</v>
+        <v>0.5532304533203671</v>
       </c>
       <c r="G2">
-        <v>0.002464209536163677</v>
+        <v>0.0007965807638402274</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,10 +448,10 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>2.000725455984195</v>
+        <v>5.213645937163221</v>
       </c>
       <c r="L2">
-        <v>0.1527498577433519</v>
+        <v>0.1687748580820099</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>3.561611638974739</v>
+        <v>1.616104060790207</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,19 +471,19 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.4051178511413411</v>
+        <v>0.3650692943339777</v>
       </c>
       <c r="D3">
-        <v>0.04481902887347644</v>
+        <v>0.04746201265319172</v>
       </c>
       <c r="E3">
-        <v>0.1708091561282927</v>
+        <v>0.162796600956419</v>
       </c>
       <c r="F3">
-        <v>1.003477975750442</v>
+        <v>0.5240569515535967</v>
       </c>
       <c r="G3">
-        <v>0.0024677502660045</v>
+        <v>0.0008021210652425212</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,10 +495,10 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>1.788415386103793</v>
+        <v>4.530649814323056</v>
       </c>
       <c r="L3">
-        <v>0.1487713566611859</v>
+        <v>0.1496727248250806</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>3.602852058618993</v>
+        <v>1.575862828353706</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,19 +518,19 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.3998931948320603</v>
+        <v>0.3386157159826837</v>
       </c>
       <c r="D4">
-        <v>0.04411986742900353</v>
+        <v>0.04531992593868495</v>
       </c>
       <c r="E4">
-        <v>0.1683596402831817</v>
+        <v>0.1506358240253114</v>
       </c>
       <c r="F4">
-        <v>1.008412737056688</v>
+        <v>0.5082123755206212</v>
       </c>
       <c r="G4">
-        <v>0.002470037784509738</v>
+        <v>0.0008056213698529131</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,10 +542,10 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>1.657860822143164</v>
+        <v>4.112438435075717</v>
       </c>
       <c r="L4">
-        <v>0.1464175458867061</v>
+        <v>0.1381868295205209</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>3.631272634130227</v>
+        <v>1.558277811601045</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,19 +565,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.3978214668213411</v>
+        <v>0.3279625037790197</v>
       </c>
       <c r="D5">
-        <v>0.04383620304147229</v>
+        <v>0.04445131613627495</v>
       </c>
       <c r="E5">
-        <v>0.1673863829903937</v>
+        <v>0.145738541183448</v>
       </c>
       <c r="F5">
-        <v>1.010643693257144</v>
+        <v>0.5022405697371681</v>
       </c>
       <c r="G5">
-        <v>0.00247099859562998</v>
+        <v>0.0008070732817563231</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,10 +589,10 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>1.604612395996014</v>
+        <v>3.942219618644458</v>
       </c>
       <c r="L5">
-        <v>0.1454806914137947</v>
+        <v>0.1335613944749454</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>3.643631216280539</v>
+        <v>1.552788379577464</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,19 +612,19 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.3974809218557027</v>
+        <v>0.3262008539061014</v>
       </c>
       <c r="D6">
-        <v>0.0437891770713037</v>
+        <v>0.04430732843290741</v>
       </c>
       <c r="E6">
-        <v>0.1672262799426498</v>
+        <v>0.1449287053409094</v>
       </c>
       <c r="F6">
-        <v>1.011027410617288</v>
+        <v>0.5012772641198211</v>
       </c>
       <c r="G6">
-        <v>0.002471159869347427</v>
+        <v>0.0008073159318183754</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,10 +636,10 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>1.595767815648685</v>
+        <v>3.913965013222992</v>
       </c>
       <c r="L6">
-        <v>0.1453264757723289</v>
+        <v>0.1327965105441677</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>3.645730210443418</v>
+        <v>1.551974910755945</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,19 +659,19 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.3998650225560709</v>
+        <v>0.3384715455337641</v>
       </c>
       <c r="D7">
-        <v>0.04411603673612774</v>
+        <v>0.04530819484666893</v>
       </c>
       <c r="E7">
-        <v>0.1683464136462227</v>
+        <v>0.1505695490571455</v>
       </c>
       <c r="F7">
-        <v>1.008441934590145</v>
+        <v>0.508129918708967</v>
       </c>
       <c r="G7">
-        <v>0.002470050626134021</v>
+        <v>0.0008056408466472847</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,10 +683,10 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>1.657142879378284</v>
+        <v>4.110142077667319</v>
       </c>
       <c r="L7">
-        <v>0.1464048207255573</v>
+        <v>0.1381242334769439</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>3.631436163385985</v>
+        <v>1.558197136939953</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.410889187738519</v>
+        <v>0.3937665029445441</v>
       </c>
       <c r="D8">
-        <v>0.04556929390411568</v>
+        <v>0.0497641612237345</v>
       </c>
       <c r="E8">
-        <v>0.1735083440453593</v>
+        <v>0.1759895503918116</v>
       </c>
       <c r="F8">
-        <v>0.9989659373338782</v>
+        <v>0.5427204125008203</v>
       </c>
       <c r="G8">
-        <v>0.002465406877625336</v>
+        <v>0.0007984710630890202</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,10 +730,10 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>1.927563042905831</v>
+        <v>4.97785738257096</v>
       </c>
       <c r="L8">
-        <v>0.1513595726019901</v>
+        <v>0.1621343388043925</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>3.575186827951626</v>
+        <v>1.600679187736773</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,19 +753,19 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.4343210761982732</v>
+        <v>0.5072171331962636</v>
       </c>
       <c r="D9">
-        <v>0.04845669077908354</v>
+        <v>0.05868624756265461</v>
       </c>
       <c r="E9">
-        <v>0.1844206565040025</v>
+        <v>0.2281652432866608</v>
       </c>
       <c r="F9">
-        <v>0.9873753370555605</v>
+        <v>0.6286628651825339</v>
       </c>
       <c r="G9">
-        <v>0.00245719694332058</v>
+        <v>0.0007851573850441377</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,10 +777,10 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>2.456214352125755</v>
+        <v>6.692776138508975</v>
       </c>
       <c r="L9">
-        <v>0.1617845040393746</v>
+        <v>0.2114357634927728</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>3.48957181864418</v>
+        <v>1.746069495520203</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,19 +800,19 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.4526484649215945</v>
+        <v>0.5945688431071403</v>
       </c>
       <c r="D10">
-        <v>0.05059988414623007</v>
+        <v>0.06540052953671704</v>
       </c>
       <c r="E10">
-        <v>0.1929232792678661</v>
+        <v>0.2683686985455651</v>
       </c>
       <c r="F10">
-        <v>0.9831643943366828</v>
+        <v>0.705413974263351</v>
       </c>
       <c r="G10">
-        <v>0.002451705841230303</v>
+        <v>0.0007757769756240874</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,10 +824,10 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>2.843531361937721</v>
+        <v>7.967369832741838</v>
       </c>
       <c r="L10">
-        <v>0.1698801903928597</v>
+        <v>0.2494524758221672</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>3.44186472000365</v>
+        <v>1.899136906170384</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,19 +847,19 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.4612290879202021</v>
+        <v>0.6354082202761901</v>
       </c>
       <c r="D11">
-        <v>0.05157941815416933</v>
+        <v>0.06850170563444635</v>
       </c>
       <c r="E11">
-        <v>0.1968976477203555</v>
+        <v>0.2871759810801251</v>
       </c>
       <c r="F11">
-        <v>0.9821926324683119</v>
+        <v>0.7439173720161847</v>
       </c>
       <c r="G11">
-        <v>0.002449323983872219</v>
+        <v>0.0007715835638774728</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,10 +871,10 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>3.019482673451648</v>
+        <v>8.552019702997995</v>
       </c>
       <c r="L11">
-        <v>0.1736589436436446</v>
+        <v>0.2672467831674794</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>3.423491686338224</v>
+        <v>1.980885682323674</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,19 +894,19 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.4645134255538039</v>
+        <v>0.6510529870590176</v>
       </c>
       <c r="D12">
-        <v>0.05195098093135897</v>
+        <v>0.06968391256126694</v>
       </c>
       <c r="E12">
-        <v>0.1984180020261661</v>
+        <v>0.2943826754651084</v>
       </c>
       <c r="F12">
-        <v>0.9819610987787399</v>
+        <v>0.7590722294376349</v>
       </c>
       <c r="G12">
-        <v>0.002448438634509003</v>
+        <v>0.0007700050441781329</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,10 +918,10 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>3.086074203756425</v>
+        <v>8.774254692683257</v>
       </c>
       <c r="L12">
-        <v>0.1751037252383298</v>
+        <v>0.2740671162928976</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>3.417015545861005</v>
+        <v>2.013776724400941</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.4638045255078964</v>
+        <v>0.6476752502886143</v>
       </c>
       <c r="D13">
-        <v>0.05187093040495938</v>
+        <v>0.06942893423011043</v>
       </c>
       <c r="E13">
-        <v>0.1980898833829912</v>
+        <v>0.2928266402922119</v>
       </c>
       <c r="F13">
-        <v>0.9820048833282868</v>
+        <v>0.7557818197070532</v>
       </c>
       <c r="G13">
-        <v>0.002448628572874624</v>
+        <v>0.0007703446069800005</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,10 +965,10 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>3.071734233164307</v>
+        <v>8.726352531259693</v>
       </c>
       <c r="L13">
-        <v>0.1747919489395287</v>
+        <v>0.2725944165321295</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>3.418388849934274</v>
+        <v>2.006603747113985</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,19 +988,19 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.4614985898201382</v>
+        <v>0.6366915925209184</v>
       </c>
       <c r="D14">
-        <v>0.05160997426966674</v>
+        <v>0.06859880207134239</v>
       </c>
       <c r="E14">
-        <v>0.1970224203982909</v>
+        <v>0.2877671187513471</v>
       </c>
       <c r="F14">
-        <v>0.9821708451693496</v>
+        <v>0.7451523035507392</v>
       </c>
       <c r="G14">
-        <v>0.002449250813261505</v>
+        <v>0.000771453516154943</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,10 +1012,10 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>3.024961964015915</v>
+        <v>8.570285369003614</v>
       </c>
       <c r="L14">
-        <v>0.173777528851673</v>
+        <v>0.2678061910429363</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>3.422949228921794</v>
+        <v>1.983551708721905</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,19 +1035,19 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.4600907023713319</v>
+        <v>0.6299878633597871</v>
       </c>
       <c r="D15">
-        <v>0.05145021301225228</v>
+        <v>0.0680913813463988</v>
       </c>
       <c r="E15">
-        <v>0.1963705682180787</v>
+        <v>0.2846793779570262</v>
       </c>
       <c r="F15">
-        <v>0.9822902933191813</v>
+        <v>0.7387180588082884</v>
       </c>
       <c r="G15">
-        <v>0.002449634113732138</v>
+        <v>0.0007721339469493049</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,10 +1059,10 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>2.996307646109017</v>
+        <v>8.474803808746117</v>
       </c>
       <c r="L15">
-        <v>0.1731579723200127</v>
+        <v>0.2648842617231679</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>3.425805353120751</v>
+        <v>1.969689629865996</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,19 +1082,19 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.452092602362967</v>
+        <v>0.5919238490579914</v>
       </c>
       <c r="D16">
-        <v>0.05053595941425471</v>
+        <v>0.06519889574835247</v>
       </c>
       <c r="E16">
-        <v>0.1926656906314577</v>
+        <v>0.2671508833792586</v>
       </c>
       <c r="F16">
-        <v>0.983246955807445</v>
+        <v>0.7029747676267135</v>
       </c>
       <c r="G16">
-        <v>0.002451863829898588</v>
+        <v>0.0007760524116436663</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,10 +1106,10 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>2.832027442344383</v>
+        <v>7.929270954011088</v>
       </c>
       <c r="L16">
-        <v>0.169635175461849</v>
+        <v>0.2483004816676129</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>3.443132654328224</v>
+        <v>1.894054261922776</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,19 +1129,19 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.4472483967369101</v>
+        <v>0.5688696826398427</v>
       </c>
       <c r="D17">
-        <v>0.04997625080464019</v>
+        <v>0.06343720072755588</v>
       </c>
       <c r="E17">
-        <v>0.190420165739333</v>
+        <v>0.2565374874750503</v>
       </c>
       <c r="F17">
-        <v>0.9840760919148011</v>
+        <v>0.6820064214390555</v>
       </c>
       <c r="G17">
-        <v>0.002453261358337537</v>
+        <v>0.0007784743574453589</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,10 +1153,10 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>2.731183131683508</v>
+        <v>7.595940910117292</v>
       </c>
       <c r="L17">
-        <v>0.1674986710766575</v>
+        <v>0.2382618664221496</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>3.454616919234866</v>
+        <v>1.850888883181739</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,19 +1176,19 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.4444850453639333</v>
+        <v>0.5557119349173831</v>
       </c>
       <c r="D18">
-        <v>0.04965475416742748</v>
+        <v>0.06242825185582035</v>
       </c>
       <c r="E18">
-        <v>0.1891386197186051</v>
+        <v>0.2504810804923778</v>
       </c>
       <c r="F18">
-        <v>0.9846417818197324</v>
+        <v>0.6702799797934347</v>
       </c>
       <c r="G18">
-        <v>0.002454076109799231</v>
+        <v>0.0007798744179424829</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,10 +1200,10 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>2.673157614396303</v>
+        <v>7.404663400807465</v>
       </c>
       <c r="L18">
-        <v>0.1662788419460099</v>
+        <v>0.2325343528261641</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>3.461535565744157</v>
+        <v>1.827189317451058</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,19 +1223,19 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.4435533552481274</v>
+        <v>0.5512739213623661</v>
       </c>
       <c r="D19">
-        <v>0.0495459760572885</v>
+        <v>0.06208735084560857</v>
       </c>
       <c r="E19">
-        <v>0.1887064302299422</v>
+        <v>0.2484384576148884</v>
       </c>
       <c r="F19">
-        <v>0.9848485426626752</v>
+        <v>0.6663652840661882</v>
       </c>
       <c r="G19">
-        <v>0.002454353850505853</v>
+        <v>0.0007803496944552218</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,10 +1247,10 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>2.653507384812428</v>
+        <v>7.33997235601845</v>
       </c>
       <c r="L19">
-        <v>0.1658673785356797</v>
+        <v>0.2306027992438828</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>3.463931814071401</v>
+        <v>1.819353239157351</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,19 +1270,19 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.4477616995567075</v>
+        <v>0.5713130929310068</v>
       </c>
       <c r="D20">
-        <v>0.05003578811447795</v>
+        <v>0.06362428013373034</v>
       </c>
       <c r="E20">
-        <v>0.1906581683620985</v>
+        <v>0.2576622486866498</v>
       </c>
       <c r="F20">
-        <v>0.9839786339409926</v>
+        <v>0.6842035653088772</v>
       </c>
       <c r="G20">
-        <v>0.002453111458342161</v>
+        <v>0.0007782158186999026</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,10 +1294,10 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>2.74192053321633</v>
+        <v>7.631377382683922</v>
       </c>
       <c r="L20">
-        <v>0.1677251705321225</v>
+        <v>0.2393256188158972</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>3.453361965658303</v>
+        <v>1.855365834056471</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,19 +1317,19 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.4621749476648347</v>
+        <v>0.6399127002653699</v>
       </c>
       <c r="D21">
-        <v>0.05168660638507561</v>
+        <v>0.06884240907091765</v>
       </c>
       <c r="E21">
-        <v>0.1973355433488706</v>
+        <v>0.2892508352844558</v>
       </c>
       <c r="F21">
-        <v>0.9821183890662297</v>
+        <v>0.7482583658890292</v>
       </c>
       <c r="G21">
-        <v>0.002449067595981726</v>
+        <v>0.0007711275565520648</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,10 +1341,10 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>3.038701150151041</v>
+        <v>8.616102020863593</v>
       </c>
       <c r="L21">
-        <v>0.1740751123626723</v>
+        <v>0.2692102977271134</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>3.421596651213946</v>
+        <v>1.990268522517709</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,19 +1364,19 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.4717991100726806</v>
+        <v>0.6858058202518293</v>
       </c>
       <c r="D22">
-        <v>0.05276919903282362</v>
+        <v>0.07229918842419636</v>
       </c>
       <c r="E22">
-        <v>0.2017890662341344</v>
+        <v>0.3103954978460806</v>
       </c>
       <c r="F22">
-        <v>0.9816982949388802</v>
+        <v>0.793501592720034</v>
       </c>
       <c r="G22">
-        <v>0.002446521466519157</v>
+        <v>0.0007665493310789567</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,10 +1388,10 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>3.232445138569801</v>
+        <v>9.264655989043717</v>
       </c>
       <c r="L22">
-        <v>0.1783059158836551</v>
+        <v>0.2892251433682702</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>3.403642942633581</v>
+        <v>2.089814603320008</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,19 +1411,19 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.4666438085549487</v>
+        <v>0.6612072980524886</v>
       </c>
       <c r="D23">
-        <v>0.05219106952932151</v>
+        <v>0.07044958349870711</v>
       </c>
       <c r="E23">
-        <v>0.1994039386891941</v>
+        <v>0.2990608203293235</v>
       </c>
       <c r="F23">
-        <v>0.9818494600813636</v>
+        <v>0.7690243723774444</v>
       </c>
       <c r="G23">
-        <v>0.00244787155662951</v>
+        <v>0.0007689882596436104</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,10 +1435,10 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>3.12906128180731</v>
+        <v>8.918002662567289</v>
       </c>
       <c r="L23">
-        <v>0.1760404520117476</v>
+        <v>0.2784950044710541</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>3.412967496261899</v>
+        <v>2.035575219893246</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,19 +1458,19 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.4475295679307862</v>
+        <v>0.5702081284530891</v>
       </c>
       <c r="D24">
-        <v>0.05000887039919633</v>
+        <v>0.06353968955406941</v>
       </c>
       <c r="E24">
-        <v>0.1905505379882229</v>
+        <v>0.2571536035676232</v>
       </c>
       <c r="F24">
-        <v>0.9840224174822794</v>
+        <v>0.6832092175795026</v>
       </c>
       <c r="G24">
-        <v>0.002453179192966841</v>
+        <v>0.0007783326801147616</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,10 +1482,10 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>2.737066305733038</v>
+        <v>7.615355448043942</v>
       </c>
       <c r="L24">
-        <v>0.1676227437329345</v>
+        <v>0.2388445606175793</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>3.45392834541866</v>
+        <v>1.853338340313059</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,19 +1505,19 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.4277873234759966</v>
+        <v>0.4758963836574992</v>
       </c>
       <c r="D25">
-        <v>0.04767166635276965</v>
+        <v>0.0562483557784077</v>
       </c>
       <c r="E25">
-        <v>0.1813836379002751</v>
+        <v>0.2137570003904088</v>
       </c>
       <c r="F25">
-        <v>0.9897580118543772</v>
+        <v>0.6032223093384061</v>
       </c>
       <c r="G25">
-        <v>0.002459322574913475</v>
+        <v>0.0007886844935797166</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,10 +1529,10 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>2.31338464629323</v>
+        <v>6.226781686886909</v>
       </c>
       <c r="L25">
-        <v>0.158887956997404</v>
+        <v>0.1978176438309305</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>3.510074999048754</v>
+        <v>1.699267565739461</v>
       </c>
     </row>
   </sheetData>
